--- a/branches/master/ValueSet-vs-covid19-outcome-code.xlsx
+++ b/branches/master/ValueSet-vs-covid19-outcome-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-09T10:20:35+00:00</t>
+    <t>2023-03-09T14:36:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-covid19-outcome-code.xlsx
+++ b/branches/master/ValueSet-vs-covid19-outcome-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-09T14:36:45+00:00</t>
+    <t>2023-03-13T06:32:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-covid19-outcome-code.xlsx
+++ b/branches/master/ValueSet-vs-covid19-outcome-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-13T06:32:29+00:00</t>
+    <t>2023-04-04T11:04:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
